--- a/tools/auto_recv/phrase/base_phrase.xlsx
+++ b/tools/auto_recv/phrase/base_phrase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\wechat-pc\wechat-script\tools\auto_recv\phrase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117EAFCD-B32F-44D3-B21E-96A537927C27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789DCECE-805F-4615-AFAA-5AF2D249131B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>keyword</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,63 +59,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>app_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text_mix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>video_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"url":"http://www.baidu.com","thumburl":"http://www.icon.com/icon.png","title":"百度","des":"中文搜索"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度一下你就知道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[憨笑]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘德华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldh.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三三三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>card_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>app_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text_mix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>video_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"url":"http://www.baidu.com","thumburl":"http://www.icon.com/icon.png","title":"百度","des":"中文搜索"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度一下你就知道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[憨笑]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘德华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ldh.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123.txt</t>
+    <t>room_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,33 +456,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="4" width="20.75" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="19.375" customWidth="1"/>
+    <col min="1" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="4" width="20.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -479,7 +492,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -488,80 +501,94 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
       <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="179.4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3">
+        <v>5007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3">
-        <v>5007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="I4" s="1"/>
+      <c r="M4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="L4">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="M5">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="L5">
-        <v>5002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="M6">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="L6">
-        <v>5003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="H7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" t="s">
+      <c r="M7">
+        <v>5005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="L7">
-        <v>5005</v>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8">
+        <v>4003</v>
       </c>
     </row>
   </sheetData>

--- a/tools/auto_recv/phrase/base_phrase.xlsx
+++ b/tools/auto_recv/phrase/base_phrase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\wechat-pc\wechat-script\tools\auto_recv\phrase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789DCECE-805F-4615-AFAA-5AF2D249131B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075F478A-BA24-4641-B26F-ACB88B3395DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>keyword</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,15 +119,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三三三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>card_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>room_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABCDDDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘德华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他好帅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -501,13 +509,13 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M1" t="s">
         <v>3</v>
@@ -560,34 +568,45 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
       </c>
       <c r="M6">
-        <v>5003</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
       </c>
       <c r="M7">
-        <v>5005</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8">
+        <v>5005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="L8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8">
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9">
         <v>4003</v>
       </c>
     </row>
